--- a/biology/Zoologie/Coucou_de_Nouvelle-Zélande/Coucou_de_Nouvelle-Zélande.xlsx
+++ b/biology/Zoologie/Coucou_de_Nouvelle-Zélande/Coucou_de_Nouvelle-Zélande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coucou_de_Nouvelle-Z%C3%A9lande</t>
+          <t>Coucou_de_Nouvelle-Zélande</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Urodynamis taitensis
 Le Coucou de Nouvelle-Zélande ou  koel à longue queue  (Urodynamis taitensis) est une espèce d'oiseaux cuculiformes de la famille des Cuculidae (les coucous).
 C'est la seule espèce du genre Urodynamis qui n'est pas reconnu par tous les auteurs, qui nomment dans ce cas son unique espèce Eudynamys taitensis et l'intègrent donc au genre Eudynamys.
-Leur migration vers Tahiti et les îles Cook étaient utilisée par les navigateurs Polynésiens pour aller vers ces îles depuis la Nouvelle-Zélande[1].
+Leur migration vers Tahiti et les îles Cook étaient utilisée par les navigateurs Polynésiens pour aller vers ces îles depuis la Nouvelle-Zélande.
 </t>
         </is>
       </c>
